--- a/xxxxx005_RPC/305_RPC_8_THE_RPC_MESSAGE_PROTOCOL.xlsx
+++ b/xxxxx005_RPC/305_RPC_8_THE_RPC_MESSAGE_PROTOCOL.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E353A6-7463-4C2D-8486-5851418E710F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716A2BA9-AA01-479F-AD52-96407DBD7503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="11235" windowHeight="11640" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>意味</t>
     <rPh sb="0" eb="2">
@@ -127,21 +127,6 @@
     <t>remote can't authenticate caller</t>
   </si>
   <si>
-    <t>bad credentials (seal broken)</t>
-  </si>
-  <si>
-    <t>client must begin new session</t>
-  </si>
-  <si>
-    <t>bad verifier (seal broken)</t>
-  </si>
-  <si>
-    <t>verifier expired or replayed</t>
-  </si>
-  <si>
-    <t>rejected for security reasons</t>
-  </si>
-  <si>
     <t>Meaning</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -168,15 +153,6 @@
     <t>プロシージャはパラメータをデコードできません</t>
   </si>
   <si>
-    <t>RPCバージョン番号 != 2</t>
-  </si>
-  <si>
-    <t>リモートで呼び出し元を認証できない</t>
-  </si>
-  <si>
-    <t>バッドクレデンシャル（シール破損）</t>
-  </si>
-  <si>
     <t>クライアントは新しいセッションを開始する必要があります。</t>
   </si>
   <si>
@@ -217,6 +193,81 @@
     <rPh sb="0" eb="1">
       <t>アタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bogus credentials (seal broken)</t>
+  </si>
+  <si>
+    <t>client should begin new session</t>
+  </si>
+  <si>
+    <t>verifier expired or was replaye</t>
+  </si>
+  <si>
+    <t>rejected due to security reasons</t>
+  </si>
+  <si>
+    <t>AUTH_INVALIDRESP</t>
+  </si>
+  <si>
+    <t>bogus response verifier</t>
+  </si>
+  <si>
+    <t>some unknown reason</t>
+  </si>
+  <si>
+    <t>AUTH_FAILED</t>
+  </si>
+  <si>
+    <t>verifier expired or was replayed</t>
+  </si>
+  <si>
+    <t>不正なクレデンシャル（シール破損）</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な応答ベリファイア</t>
+    <rPh sb="3" eb="5">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPCバージョン番号が 2ではない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートが呼び出し元を認証できない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他の理由によるエラー</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"RPC message" by Yamaoka is licensed under CC BY 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -224,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +290,21 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -287,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +689,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -637,15 +706,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -664,19 +733,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C5" s="5"/>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -695,25 +767,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C10" s="5"/>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -724,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -738,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>17</v>
@@ -752,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
@@ -763,10 +838,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>19</v>
@@ -780,15 +855,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -796,16 +876,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -816,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>21</v>
@@ -830,15 +910,20 @@
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D23" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -846,16 +931,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -866,10 +951,10 @@
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -880,10 +965,10 @@
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -894,10 +979,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -908,10 +993,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -922,15 +1007,48 @@
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="2">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="2">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D33" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>